--- a/Testing/small-transfer.xlsx
+++ b/Testing/small-transfer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -128,13 +128,13 @@
     <t>MPL</t>
   </si>
   <si>
-    <t>Sam Ballard:PDQ Employee </t>
+    <t>Sam Ballard:PDQ Employee</t>
   </si>
   <si>
     <t>5730 Library Rd.</t>
   </si>
   <si>
-    <t>Ernest Hemmingway</t>
+    <t>Jake Barnes</t>
   </si>
   <si>
     <t>907 Whitehead St</t>
@@ -150,6 +150,27 @@
   </si>
   <si>
     <t>FPL</t>
+  </si>
+  <si>
+    <t>Tanya Daniels</t>
+  </si>
+  <si>
+    <t>2035 Library Rd</t>
+  </si>
+  <si>
+    <t>Portland, ME</t>
+  </si>
+  <si>
+    <t>Edna Acosta</t>
+  </si>
+  <si>
+    <t>7896 Library Rd. </t>
+  </si>
+  <si>
+    <t>Portland, OR</t>
+  </si>
+  <si>
+    <t>(212) 555-1212 </t>
   </si>
 </sst>
 </file>
@@ -235,7 +256,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -250,6 +271,14 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -269,14 +298,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="F1:AJ6"/>
+  <dimension ref="F1:AJ8"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="AJ8" activeCellId="0" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -294,7 +323,7 @@
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="3.88775510204082"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.6785714285714"/>
     <col collapsed="false" hidden="false" max="25" min="23" style="0" width="3.88775510204082"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="17.6581632653061"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="21.5816326530612"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="0" width="3.88775510204082"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="0" width="10.0357142857143"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.88775510204082"/>
@@ -513,6 +542,73 @@
         <v>44</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="2" t="n">
+        <v>42215</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>44236</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>23529000445172</v>
+      </c>
+      <c r="AD7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH7" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ7" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="2" t="n">
+        <v>42215</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>44240</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="4" t="n">
+        <v>23529001000463</v>
+      </c>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AD8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ8" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
